--- a/tochoku_all_6.xlsx
+++ b/tochoku_all_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="229">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,9 @@
     <t>松井貴裕</t>
   </si>
   <si>
+    <t>松原龍輔</t>
+  </si>
+  <si>
     <t>松永崇宏</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>清水　隆之</t>
   </si>
   <si>
+    <t>熊木聡美</t>
+  </si>
+  <si>
     <t>片山充哉</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>腎内　門松</t>
   </si>
   <si>
+    <t>臼坂優希</t>
+  </si>
+  <si>
     <t>荒金直美</t>
   </si>
   <si>
@@ -178,289 +187,400 @@
     <t>腎臓内科　松浦</t>
   </si>
   <si>
-    <t>臼坂優希</t>
-  </si>
-  <si>
     <t>6月29日 (土)</t>
   </si>
   <si>
-    <t>6月4日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日</t>
+    <t>6月4日 ,6月6日 ,6月11日 ,6月13日 ,6月18日 ,6月20日 ,6月25日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月9日 ,6月10日 ,6月11日 ,6月13日 ,6月16日 ,6月17日 ,6月18日 ,6月20日 ,6月23日 ,6月24日 ,6月25日 ,6月27日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月8日 ,6月22日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月13日 ,6月14日 ,6月17日 ,6月18日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月15日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月16日 ,6月17日 ,6月30日</t>
   </si>
   <si>
     <t>6月1日 (土) ,6月15日 (土) ,6月22日 (土) ,6月29日 (土)</t>
   </si>
   <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月11日 ,6月12日 ,6月13日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月7日 ,6月8日 ,6月9日 ,6月11日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月18日 ,6月19日 ,6月25日 ,6月26日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月22日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月5日 ,6月10日 ,6月12日 ,6月17日 ,6月24日 ,6月26日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月15日 (土)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月13日 ,6月14日 ,6月16日 ,6月17日 ,6月18日 ,6月20日 ,6月21日 ,6月23日 ,6月24日 ,6月25日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月16日</t>
+  </si>
+  <si>
+    <t>6月9日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月12日 ,6月19日 ,6月21日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月13日 (木) ,6月20日 (木) ,6月27日 (木)</t>
+  </si>
+  <si>
+    <t>6月22日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月15日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月22日 ,6月23日</t>
+  </si>
+  <si>
+    <t>6月14日 ,6月21日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月14日 ,6月15日 ,6月16日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月13日 ,6月14日 ,6月17日 ,6月18日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月3日 (月) ,6月10日 (月) ,6月17日 (月) ,6月24日 (月)</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月11日 ,6月18日 ,6月25日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月8日 ,6月9日 ,6月10日 ,6月12日 ,6月13日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月13日 ,6月16日 ,6月17日 ,6月18日 ,6月20日 ,6月23日 ,6月24日 ,6月25日 ,6月27日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月10日 ,6月11日 ,6月24日 ,6月25日</t>
+  </si>
+  <si>
+    <t>6月17日 (月) ,6月24日 (月)</t>
+  </si>
+  <si>
+    <t>6月7日 (金) ,6月14日 (金) ,6月28日 (金)</t>
+  </si>
+  <si>
+    <t>6月5日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月10日 ,6月12日 ,6月17日 ,6月19日 ,6月24日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日 ,6月9日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月26日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月10日 ,6月17日 ,6月24日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月10日 ,6月12日 ,6月13日 ,6月15日 ,6月17日 ,6月20日 ,6月24日 ,6月26日 ,6月27日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月4日 (火) ,6月5日 (水) ,6月11日 (火) ,6月12日 (水) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月5日 ,6月6日 ,6月7日 ,6月9日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月19日 ,6月20日 ,6月21日 ,6月23日 ,6月26日 ,6月27日 ,6月28日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月14日 ,6月21日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月12日 ,6月17日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月5日 ,6月7日 ,6月8日 ,6月12日 ,6月14日 ,6月15日 ,6月19日 ,6月21日 ,6月22日 ,6月26日 ,6月28日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月8日 ,6月14日 ,6月15日 ,6月16日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月9日 ,6月16日 ,6月23日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月9日 ,6月15日 ,6月16日 ,6月23日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月12日 ,6月15日 ,6月16日 ,6月19日 ,6月22日 ,6月23日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月15日 ,6月16日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月8日 ,6月9日 ,6月12日 ,6月18日 ,6月19日 ,6月22日 ,6月23日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月7日 ,6月8日 ,6月12日 ,6月19日 ,6月21日 ,6月22日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月11日 ,6月12日 ,6月13日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月25日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月6日 ,6月7日 ,6月8日 ,6月15日 ,6月21日 ,6月22日 ,6月23日 ,6月28日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月8日 (土)</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月14日 ,6月15日 ,6月21日 ,6月22日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月6日 ,6月10日 ,6月13日 ,6月17日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月21日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月9日 ,6月16日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月15日 ,6月16日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月4日 ,6月5日 ,6月6日 ,6月9日 ,6月10日 ,6月12日 ,6月13日 ,6月16日 ,6月19日 ,6月20日 ,6月23日 ,6月26日 ,6月27日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月7日 ,6月8日 ,6月9日 ,6月15日 ,6月16日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月18日 ,6月25日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月3日 (月) ,6月7日 (金) ,6月8日 (土) ,6月10日 (月) ,6月17日 (月) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月24日 (月)</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月8日 (土) ,6月15日 (土) ,6月16日 (日)</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月12日 ,6月15日 ,6月19日 ,6月22日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月17日</t>
+  </si>
+  <si>
+    <t>6月8日 ,6月22日 ,6月23日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月7日 ,6月8日 ,6月14日 ,6月15日 ,6月16日 ,6月21日 ,6月22日 ,6月23日 ,6月28日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月18日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月8日 ,6月15日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月15日 (土) ,6月16日 (日)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月6日 ,6月11日 ,6月15日 ,6月18日 ,6月25日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月17日 (月) ,6月18日 (火) ,6月19日 (水) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月24日 (月) ,6月25日 (火) ,6月26日 (水) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月11日 ,6月12日 ,6月18日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月25日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月16日 ,6月17日 ,6月18日 ,6月24日 ,6月25日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月8日 ,6月16日 ,6月22日 ,6月23日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月16日 ,6月18日 ,6月22日 ,6月25日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月15日 ,6月16日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月8日 ,6月15日 ,6月16日 ,6月22日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日 ,6月9日 ,6月15日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月9日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月6日 ,6月7日 ,6月13日 ,6月18日 ,6月20日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月14日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月5日 ,6月8日 ,6月9日 ,6月12日 ,6月15日 ,6月16日 ,6月19日 ,6月22日 ,6月23日 ,6月26日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月24日 ,6月25日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 (火) ,6月5日 (水) ,6月６日 (木) ,6月7日 (金) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月7日 ,6月8日 ,6月9日 ,6月11日 ,6月15日 ,6月16日 ,6月18日 ,6月22日 ,6月23日 ,6月25日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月7日 ,6月11日 ,6月14日 ,6月18日 ,6月21日 ,6月25日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月13日 ,6月14日 ,6月17日 ,6月20日 ,6月21日 ,6月24日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月11日 ,6月12日 ,6月18日 ,6月19日 ,6月25日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月7日 ,6月12日 ,6月14日 ,6月15日 ,6月19日 ,6月21日 ,6月22日 ,6月26日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月7日 ,6月8日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月6日 ,6月12日 ,6月13日 ,6月20日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月7日 ,6月10日 ,6月14日 ,6月17日 ,6月21日 ,6月24日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月3日 (月)</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月10日 ,6月17日 ,6月24日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
+  </si>
+  <si>
+    <t>6月5日 (水) ,6月12日 (水) ,6月18日 (火) ,6月19日 (水) ,6月26日 (水)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月16日 ,6月17日 ,6月18日 ,6月23日 ,6月24日 ,6月25日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月6日 ,6月11日 ,6月12日 ,6月13日 ,6月19日 ,6月20日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月6日 ,6月7日 ,6月11日 ,6月13日 ,6月14日 ,6月18日 ,6月20日 ,6月21日 ,6月25日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
     <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日</t>
   </si>
   <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月5日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月15日 (土)</t>
-  </si>
-  <si>
-    <t>6月2日</t>
-  </si>
-  <si>
-    <t>6月9日</t>
-  </si>
-  <si>
-    <t>6月7日</t>
-  </si>
-  <si>
-    <t>6月13日 (木) ,6月20日 (木) ,6月27日 (木)</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月3日 (月) ,6月10日 (月) ,6月17日 (月) ,6月24日 (月)</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日</t>
-  </si>
-  <si>
-    <t>6月17日 (月) ,6月24日 (月)</t>
-  </si>
-  <si>
-    <t>6月7日 (金) ,6月14日 (金) ,6月28日 (金)</t>
-  </si>
-  <si>
-    <t>6月5日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日</t>
-  </si>
-  <si>
-    <t>6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 (火) ,6月5日 (水) ,6月11日 (火) ,6月12日 (水) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月5日 ,6月6日 ,6月7日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月5日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月6日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月8日 (土)</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月4日 ,6月5日 ,6月6日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月3日 (月) ,6月7日 (金) ,6月8日 (土) ,6月10日 (月) ,6月17日 (月) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月24日 (月)</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月8日 (土) ,6月15日 (土) ,6月16日 (日)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月15日 (土) ,6月16日 (日)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月17日 (月) ,6月18日 (火) ,6月19日 (水) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月24日 (月) ,6月25日 (火) ,6月26日 (水) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月5日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月5日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 (火) ,6月5日 (水) ,6月６日 (木) ,6月7日 (金) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月6日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月3日 (月)</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
-  </si>
-  <si>
-    <t>6月5日 (水) ,6月12日 (水) ,6月18日 (火) ,6月19日 (水) ,6月26日 (水)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日</t>
+    <t>6月3日 ,6月4日 ,6月6日 ,6月10日 ,6月11日 ,6月13日 ,6月17日 ,6月18日 ,6月20日 ,6月24日 ,6月25日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月9日 ,6月16日 ,6月23日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日 ,6月12日 ,6月19日 ,6月21日 ,6月22日 ,6月26日</t>
   </si>
   <si>
     <t>6月６日 (木) ,6月7日 (金) ,6月8日 (土) ,6月14日 (金) ,6月21日 (金) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
   </si>
   <si>
-    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月7日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日</t>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月7日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月7日 ,6月8日 ,6月9日 ,6月16日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月7日 ,6月8日 ,6月14日 ,6月15日 ,6月21日 ,6月22日 ,6月28日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月10日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月24日 ,6月26日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月7日 ,6月8日 ,6月14日 ,6月15日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月11日 ,6月15日 ,6月18日 ,6月25日 ,6月28日 ,6月29日 ,6月30日</t>
   </si>
   <si>
     <t>6月1日 (土) ,6月5日 (水) ,6月7日 (金) ,6月8日 (土) ,6月12日 (水) ,6月16日 (日) ,6月18日 (火) ,6月19日 (水) ,6月26日 (水) ,6月29日 (土)</t>
   </si>
   <si>
-    <t>6月2日 ,6月5日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月3日 ,6月4日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
+    <t>6月2日 ,6月5日 ,6月9日 ,6月11日 ,6月12日 ,6月16日 ,6月19日 ,6月23日 ,6月26日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月18日 ,6月22日 ,6月25日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月3日 ,6月4日 ,6月8日 ,6月10日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月22日 ,6月24日 ,6月25日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月29日 ,6月30日</t>
   </si>
   <si>
     <t>tochoku</t>
@@ -941,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,16 +1101,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1001,16 +1121,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1021,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1035,13 +1155,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1052,16 +1172,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1072,16 +1192,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1092,13 +1212,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1109,13 +1229,13 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1125,14 +1245,17 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1143,16 +1266,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1163,13 +1286,13 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1180,13 +1303,13 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1197,13 +1320,13 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1214,13 +1337,13 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1231,13 +1354,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1248,16 +1371,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1268,16 +1391,16 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1288,13 +1411,13 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1305,10 +1428,13 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1319,13 +1445,10 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1335,17 +1458,14 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1356,16 +1476,16 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1375,17 +1495,17 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1395,11 +1515,17 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1409,17 +1535,11 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1430,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1449,17 +1569,14 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1469,14 +1586,17 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1486,14 +1606,17 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1504,13 +1627,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1521,10 +1644,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>189</v>
+      </c>
+      <c r="G32" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1534,17 +1660,14 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1554,14 +1677,11 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1571,14 +1691,17 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1588,11 +1711,14 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1603,16 +1729,13 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1622,14 +1745,17 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1640,13 +1766,10 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1656,14 +1779,17 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1673,17 +1799,14 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1693,17 +1816,14 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1713,17 +1833,14 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1733,11 +1850,17 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1747,1300 +1870,1405 @@
       <c r="B45" t="s">
         <v>51</v>
       </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="G46" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="H54" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H58" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="H65" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="H68" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="H72" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>94</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
-      </c>
-      <c r="H75" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="H79" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
-      </c>
-      <c r="H80" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="F83" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="F84" t="s">
-        <v>151</v>
+        <v>190</v>
+      </c>
+      <c r="H84" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
-      </c>
-      <c r="I87" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
-      </c>
-      <c r="I89" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I91" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
-      </c>
-      <c r="I92" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I93" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
-      </c>
-      <c r="I95" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F97" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
-      </c>
-      <c r="I98" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F99" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I99" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
         <v>65</v>
       </c>
+      <c r="E101" t="s">
+        <v>117</v>
+      </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I102" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="F103" t="s">
-        <v>151</v>
-      </c>
-      <c r="I103" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
-      </c>
-      <c r="I104" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F105" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I108" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I109" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F111" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E114" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E115" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="F115" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E119" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F119" t="s">
-        <v>151</v>
-      </c>
-      <c r="I119" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E122" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
-      </c>
-      <c r="D123" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F124" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E125" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="I125" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F126" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
+        <v>40</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>42</v>
+      </c>
+      <c r="B129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
         <v>44</v>
       </c>
-      <c r="B127" t="s">
-        <v>51</v>
-      </c>
-      <c r="E127" t="s">
-        <v>96</v>
-      </c>
-      <c r="F127" t="s">
-        <v>151</v>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" t="s">
+        <v>82</v>
+      </c>
+      <c r="E131" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" t="s">
+        <v>188</v>
+      </c>
+      <c r="F132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>46</v>
+      </c>
+      <c r="B133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/tochoku_all_6.xlsx
+++ b/tochoku_all_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="216">
   <si>
     <t>name</t>
   </si>
@@ -49,10 +49,10 @@
     <t>佐久間一也</t>
   </si>
   <si>
-    <t>佐川　偲</t>
-  </si>
-  <si>
-    <t>入佐　薫</t>
+    <t>佐川偲</t>
+  </si>
+  <si>
+    <t>入佐薫</t>
   </si>
   <si>
     <t>勝俣敬寛</t>
@@ -85,7 +85,7 @@
     <t>岩崎文美</t>
   </si>
   <si>
-    <t>川瀬　咲</t>
+    <t>川瀬咲</t>
   </si>
   <si>
     <t>持丸貴生</t>
@@ -106,16 +106,16 @@
     <t>林智史</t>
   </si>
   <si>
-    <t>津山　頌章</t>
-  </si>
-  <si>
-    <t>消化器内科　　福原　誠一郎</t>
-  </si>
-  <si>
-    <t>消化器内科　渡邉　多代</t>
-  </si>
-  <si>
-    <t>清水　隆之</t>
+    <t>津山頌章</t>
+  </si>
+  <si>
+    <t>消化器内科渡邉多代</t>
+  </si>
+  <si>
+    <t>消化器内科福原誠一郎</t>
+  </si>
+  <si>
+    <t>清水隆之</t>
   </si>
   <si>
     <t>熊木聡美</t>
@@ -124,7 +124,7 @@
     <t>片山充哉</t>
   </si>
   <si>
-    <t>石井　真央</t>
+    <t>石井真央</t>
   </si>
   <si>
     <t>福井梓穂</t>
@@ -139,10 +139,10 @@
     <t>糖尿病科岩瀬</t>
   </si>
   <si>
-    <t>織部　峻太郎</t>
-  </si>
-  <si>
-    <t>腎内　門松</t>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>腎内門松</t>
   </si>
   <si>
     <t>臼坂優希</t>
@@ -154,7 +154,7 @@
     <t>莇舜平</t>
   </si>
   <si>
-    <t>藤村 慶子</t>
+    <t>藤村慶子</t>
   </si>
   <si>
     <t>藤澤まり</t>
@@ -163,10 +163,10 @@
     <t>谷岡友則</t>
   </si>
   <si>
-    <t>里見　良輔</t>
-  </si>
-  <si>
-    <t>野上　創生</t>
+    <t>里見良輔</t>
+  </si>
+  <si>
+    <t>野上創生</t>
   </si>
   <si>
     <t>鈴木勝也</t>
@@ -175,7 +175,7 @@
     <t>長谷川華子</t>
   </si>
   <si>
-    <t>雪野　満</t>
+    <t>雪野満</t>
   </si>
   <si>
     <t>髙木菜々美</t>
@@ -184,7 +184,7 @@
     <t>福島龍貴</t>
   </si>
   <si>
-    <t>腎臓内科　松浦</t>
+    <t>腎臓内科松浦</t>
   </si>
   <si>
     <t>6月29日 (土)</t>
@@ -394,12 +394,12 @@
     <t>6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月18日 ,6月25日 ,6月28日 ,6月29日 ,6月30日</t>
   </si>
   <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月8日 (土) ,6月15日 (土) ,6月16日 (日)</t>
+  </si>
+  <si>
     <t>6月1日 (土) ,6月3日 (月) ,6月7日 (金) ,6月8日 (土) ,6月10日 (月) ,6月17日 (月) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月24日 (月)</t>
   </si>
   <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月8日 (土) ,6月15日 (土) ,6月16日 (日)</t>
-  </si>
-  <si>
     <t>6月5日 ,6月12日 ,6月15日 ,6月19日 ,6月22日 ,6月26日</t>
   </si>
   <si>
@@ -596,12 +596,6 @@
   </si>
   <si>
     <t>特になし</t>
-  </si>
-  <si>
-    <t>月曜午後が外来のため、日曜の当直は難しいです。すみません。</t>
-  </si>
-  <si>
-    <t>第一希望6/8です。第二希望6/22です。子供の預かり先の都合で可能な日が少なく申し訳ありません。</t>
   </si>
   <si>
     <t xml:space="preserve">がんばります！
@@ -629,9 +623,6 @@
     <t>免除中</t>
   </si>
   <si>
-    <t>火金外来につき、月木不可。血液内科専門医試験のため6/21-23不可</t>
-  </si>
-  <si>
     <t>学会などで不可日多くて申し訳ありません。</t>
   </si>
   <si>
@@ -641,43 +632,24 @@
     <t>ー</t>
   </si>
   <si>
-    <t>特にございません</t>
-  </si>
-  <si>
     <t>締め切り過ぎてすいません。可能な限りでお願いいたします。</t>
   </si>
   <si>
-    <t>6-7月が救外ローテ期間です。
-内科E期間は、6/10-14、7/1-になります。</t>
-  </si>
-  <si>
     <t>火曜研究日、25-29学会</t>
   </si>
   <si>
     <t>6月15日は学会で口演、1, 8日は私用です。</t>
   </si>
   <si>
-    <t>火曜日外勤のため、不可日多く申し訳ありません</t>
-  </si>
-  <si>
     <t>いつもありがとうございます。よろしくお願いします！</t>
   </si>
   <si>
-    <t>6/1&gt;6/29&gt;6/15</t>
-  </si>
-  <si>
     <t>火曜日が外勤で不可日としております。</t>
   </si>
   <si>
-    <t>日直です</t>
-  </si>
-  <si>
     <t>55才定年免除ですが、どうしても誰もいなかったらご相談ください</t>
   </si>
   <si>
-    <t>火金外来のため不可</t>
-  </si>
-  <si>
     <t>免除です。</t>
   </si>
   <si>
@@ -687,23 +659,10 @@
     <t>月、金外来です。</t>
   </si>
   <si>
-    <t>水曜日外勤 木曜日外来</t>
-  </si>
-  <si>
     <t>月曜のみ対応可</t>
   </si>
   <si>
-    <t>６月は外していただけますでしょうか？７月以降で調整しています、よろしくお願いいたします。</t>
-  </si>
-  <si>
     <t>大変本当に申し訳ございません。</t>
-  </si>
-  <si>
-    <t>火金外来のため、月木は不可
-血液内科専門医試験のため6/21-23不可</t>
-  </si>
-  <si>
-    <t>日曜日(外来前日) 水曜日(外勤 外来前日)</t>
   </si>
 </sst>
 </file>
@@ -1160,9 +1119,6 @@
       <c r="F5" t="s">
         <v>189</v>
       </c>
-      <c r="G5" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -1180,9 +1136,6 @@
       <c r="F6" t="s">
         <v>189</v>
       </c>
-      <c r="G6" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
@@ -1201,7 +1154,7 @@
         <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1218,7 +1171,7 @@
         <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1235,7 +1188,7 @@
         <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1255,7 +1208,7 @@
         <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1275,7 +1228,7 @@
         <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1292,7 +1245,7 @@
         <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1326,7 +1279,7 @@
         <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1343,7 +1296,7 @@
         <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1379,9 +1332,6 @@
       <c r="F17" t="s">
         <v>189</v>
       </c>
-      <c r="G17" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -1400,7 +1350,7 @@
         <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1417,7 +1367,7 @@
         <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1465,7 +1415,7 @@
         <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1504,9 +1454,6 @@
       <c r="F24" t="s">
         <v>189</v>
       </c>
-      <c r="G24" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
@@ -1515,12 +1462,6 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
       <c r="E25" t="s">
         <v>126</v>
       </c>
@@ -1535,6 +1476,12 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" t="s">
         <v>127</v>
       </c>
@@ -1558,9 +1505,6 @@
       <c r="F27" t="s">
         <v>189</v>
       </c>
-      <c r="G27" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
@@ -1576,7 +1520,7 @@
         <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1596,7 +1540,7 @@
         <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1615,9 +1559,6 @@
       <c r="F30" t="s">
         <v>189</v>
       </c>
-      <c r="G30" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
@@ -1650,7 +1591,7 @@
         <v>189</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1667,7 +1608,7 @@
         <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1700,9 +1641,6 @@
       <c r="F35" t="s">
         <v>189</v>
       </c>
-      <c r="G35" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
@@ -1735,7 +1673,7 @@
         <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1755,7 +1693,7 @@
         <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1788,9 +1726,6 @@
       <c r="F40" t="s">
         <v>189</v>
       </c>
-      <c r="G40" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
@@ -1806,7 +1741,7 @@
         <v>189</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1839,9 +1774,6 @@
       <c r="F43" t="s">
         <v>189</v>
       </c>
-      <c r="G43" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
@@ -1859,9 +1791,6 @@
       <c r="F44" t="s">
         <v>189</v>
       </c>
-      <c r="G44" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
@@ -1880,7 +1809,7 @@
         <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1900,7 +1829,7 @@
         <v>189</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1937,7 +1866,7 @@
         <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2027,7 +1956,7 @@
         <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2142,9 +2071,6 @@
       <c r="F61" t="s">
         <v>190</v>
       </c>
-      <c r="H61" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
@@ -2188,7 +2114,7 @@
         <v>190</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2207,9 +2133,6 @@
       <c r="F65" t="s">
         <v>190</v>
       </c>
-      <c r="H65" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
@@ -2256,7 +2179,7 @@
         <v>190</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2318,7 +2241,7 @@
         <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2424,9 +2347,6 @@
       <c r="F79" t="s">
         <v>190</v>
       </c>
-      <c r="H79" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
@@ -2510,7 +2430,7 @@
         <v>190</v>
       </c>
       <c r="H84" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2616,9 +2536,6 @@
       <c r="F91" t="s">
         <v>191</v>
       </c>
-      <c r="I91" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
@@ -2651,7 +2568,7 @@
         <v>191</v>
       </c>
       <c r="I93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2699,7 +2616,7 @@
         <v>191</v>
       </c>
       <c r="I96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2744,7 +2661,7 @@
         <v>191</v>
       </c>
       <c r="I99" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2794,9 +2711,6 @@
       <c r="F102" t="s">
         <v>191</v>
       </c>
-      <c r="I102" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
@@ -2907,9 +2821,6 @@
       <c r="F109" t="s">
         <v>191</v>
       </c>
-      <c r="I109" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
@@ -2918,9 +2829,6 @@
       <c r="B110" t="s">
         <v>31</v>
       </c>
-      <c r="D110" t="s">
-        <v>102</v>
-      </c>
       <c r="E110" t="s">
         <v>126</v>
       </c>
@@ -2935,6 +2843,9 @@
       <c r="B111" t="s">
         <v>32</v>
       </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
       <c r="E111" t="s">
         <v>127</v>
       </c>
@@ -2959,7 +2870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>26</v>
       </c>
@@ -2973,7 +2884,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>27</v>
       </c>
@@ -2987,7 +2898,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>28</v>
       </c>
@@ -3001,7 +2912,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>29</v>
       </c>
@@ -3015,7 +2926,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>30</v>
       </c>
@@ -3032,7 +2943,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>31</v>
       </c>
@@ -3046,7 +2957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>32</v>
       </c>
@@ -3060,7 +2971,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>33</v>
       </c>
@@ -3074,7 +2985,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>34</v>
       </c>
@@ -3088,7 +2999,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>35</v>
       </c>
@@ -3102,7 +3013,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>36</v>
       </c>
@@ -3116,7 +3027,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>37</v>
       </c>
@@ -3130,7 +3041,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>38</v>
       </c>
@@ -3143,11 +3054,8 @@
       <c r="F125" t="s">
         <v>191</v>
       </c>
-      <c r="I125" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>39</v>
       </c>
@@ -3161,7 +3069,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>40</v>
       </c>
@@ -3175,7 +3083,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>41</v>
       </c>
